--- a/nomii_real/data/retailer_orders.xlsx
+++ b/nomii_real/data/retailer_orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>OrderID</t>
   </si>
@@ -73,6 +73,12 @@
     <t>add6407f-8225-46ae-be70-e5a3c9a9b5c7</t>
   </si>
   <si>
+    <t>89bdc2f6-0e22-47a8-b4f2-b7b5696fc495</t>
+  </si>
+  <si>
+    <t>0947da20-6ab3-444d-97b4-2aa9c1662a75</t>
+  </si>
+  <si>
     <t>R1004</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>P2001</t>
   </si>
   <si>
+    <t>P2005</t>
+  </si>
+  <si>
     <t>Either</t>
   </si>
   <si>
@@ -148,7 +157,16 @@
     <t>Delivered</t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
     <t>2025-08-06 01:13:57</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:02:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:14:23</t>
   </si>
 </sst>
 </file>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,13 +565,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -562,7 +580,7 @@
         <v>282.12</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2">
         <v>45828</v>
@@ -573,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -588,7 +606,7 @@
         <v>4080.56</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2">
         <v>45864</v>
@@ -599,13 +617,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -614,7 +632,7 @@
         <v>3352.76</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>45704</v>
@@ -625,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -640,7 +658,7 @@
         <v>3795.14</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>45765</v>
@@ -651,13 +669,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -666,7 +684,7 @@
         <v>4419.22</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
         <v>45788</v>
@@ -677,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -692,7 +710,7 @@
         <v>2339.59</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2">
         <v>45815</v>
@@ -703,13 +721,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -718,7 +736,7 @@
         <v>2893.87</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>45857</v>
@@ -729,13 +747,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -744,7 +762,7 @@
         <v>1954.82</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2">
         <v>45790</v>
@@ -755,13 +773,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -770,7 +788,7 @@
         <v>4712.42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>45753</v>
@@ -781,13 +799,13 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -796,7 +814,7 @@
         <v>3567.4</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
         <v>45685</v>
@@ -807,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -822,10 +840,62 @@
         <v>881.53</v>
       </c>
       <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>73.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>182.9</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
